--- a/data/标准城市信息对照表.xlsx
+++ b/data/标准城市信息对照表.xlsx
@@ -37,7 +37,7 @@
     <t>city_url_lianjia</t>
   </si>
   <si>
-    <t>city_url_ziru</t>
+    <t>city_url_ziroom</t>
   </si>
   <si>
     <t>001</t>
@@ -3649,7 +3649,7 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
